--- a/DaySale_2025-05-27_19-37.xlsx
+++ b/DaySale_2025-05-27_19-37.xlsx
@@ -200,6 +200,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
   </si>
   <si>
     <t>0:-2</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -1456,7 +1471,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1466,14 +1481,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1482,7 +1497,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1515,14 +1530,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1539,7 +1554,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1588,24 +1603,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1654,7 +1669,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1668,10 +1683,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1680,14 +1695,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1697,11 +1712,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,7 +1801,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1796,11 +1811,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>47</v>
@@ -1812,20 +1827,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1833,10 +1848,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,20 +1860,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1869,7 +1884,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1885,7 +1900,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1928,11 +1943,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1961,11 +1976,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1977,14 +1992,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1994,49 +2009,115 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1227.5999999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>114</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>32</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>115</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>117</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>118</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>32</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>115</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1262.4400000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2200,10 +2281,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
